--- a/500all/speech_level/speeches_CHRG-114hhrg97759.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97759.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing, which is called ``Astrobiology and the Search for Life beyond Earth in the Next Decade.''    Let me make a couple of announcements. One is an explanation and that is to say that we expect more Members shortly, but at least on the Republican side, all of our Members are in a Republican conference that I left early in order to start on time here, but other Members will be arriving shortly. And the same may be true of our colleagues on the other side of the aisle as well.    We have a new member of the Science, Space, and Technology Committee, and I would like to introduce him. He is Darin LaHood, the first Member to my left, whose father I served with in Congress some years ago. Darin LaHood represents a district in Illinois. He's a former State Senator or serving as a State Senator when he was elected to Congress. Before that, he was both a State and Federal prosecutor. So we welcome his many talents to the Committee. He is going to be serving on two subcommittees, Research and Technology and Oversight, where he will be bringing all those legal skills to bear. And so we are pleased to have him join us today and permanently on this Committee. Welcome, Darin, to you.</t>
   </si>
   <si>
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -79,36 +73,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Stofan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Stofan. Thank you. I'm pleased to appear before the Committee to discuss astrobiology and the search for life beyond Earth. If I could have the first slide, please.    [Slide.]    NASA's science missions are providing strong evidence of possible habitable environments beyond Earth. With future technology and instruments currently under development, we will explore the solar system and beyond, and could indeed, perhaps in as little as 10 to 20 years, discover some form of life, past or present.    Our search is making amazing progress. When I was a Ph.D. student, scientists certainly suspected that planets might be commonplace in the universe, but we have not found evidence of a single one. Twenty years ago, we found evidence of such a planet, and today, thanks to NASA's space missions and ground-based telescopes, we have identified nearly 5,000 planets orbiting other stars, and we now believe that that the vast majority of stars in the universe have planets around them. In July, the Kepler mission confirmed the first near-Earth-size planet in the ``habitable zone'' around a sun-like star, Kepler-452b.    On Mars, a series of NASA missions culminating in the Curiosity Rover, which touched down in Gale Crater nearly three years ago, have allowed us to make fundamental discoveries. Next slide.    [Slide.]    We now know that Mars was once a water world much like Earth, with clouds and a water cycle, and indeed some running water currently on the surface. For hundreds of millions of years, about half of the northern hemisphere of Mars had an ocean, possibly a mile deep in places.    Indeed, we now know that we live in a soggy solar system, and undoubtedly, in a soggy universe. For instance, Jupiter lies outside the habitable zone and we would expect water there to be frozen. Yet we now have evidence of liquid oceans on three moons of Jupiter under the icy crusts of those worlds. And using the Hubble and Spitzer Space Telescopes, we have found signs of water in the atmospheres of planets around other stars.    So what lies ahead in the next decade of exploration? I'd like to describe just some of the highlights. Life as we know it requires water, liquid water, that's been stable on the surface of a planet for a very long time. That's why Mars is our primary destination in the search for life in our solar system. The Mars 2020 Rover mission will study Martian rocks and soils to understand past habitable conditions on Mars and to seek signs of ancient microbial life. If we do find evidence of life on Mars, it will likely be fossilized microorganisms preserved in the rock layers. The Mars 2020 Rover will begin the search, but as a field geologist, I can tell you it's going to be hard to find. That's why I believe it will take human explorers who can move quickly and make intuitive decisions on their feet to really identify it, and in doing so, inspire that next generation of explorers.    Over the next decade, our journey to Mars involves the development of a commercial crew capability for low-Earth orbit, the Space Launch System and Orion, to go beyond low-Earth orbit and an asteroid redirect mission.    Beyond Mars, the President's fiscal year 2016 budget request supports the formulation and development of a new mission to the Jovian moon Europa. If I could have the next slide.    [Slide.]    We estimate that Europa has twice as much water as the Earth's oceans, and Hubble has observed plumes of water at one of Europa's poles. A Europa mission could potentially, among other things, analyze these water plumes to determine the composition of those oceans.    Beyond our solar system, there are countless other worlds that could harbor life. In 2017, NASA will launch the Transiting Exoplanet Survey Satellite to look for rocky planets near the habitable zone of the closest stars. Next slide.    [Slide.]    We will then use the James Webb Space Telescope to analyze the atmospheres of some of these planets. The President's fiscal year 2016 budget request also supports the pre-formulation of a Wide Field Infrared Survey Telescope with the capability of directly imaging planets around the nearest stars and analyzing their atmospheres.    Since Earth remains, for now, the only instance of an inhabited planet, the search for life also requires that we further develop our understanding of life on Earth. Through our research here, we have learned that life is tough, tenacious, metabolically diverse, and highly adaptable to local environmental conditions. Astrobiologists have discovered life in numerous extreme environments and in extraordinary forms from bacteria that consume chemicals that would be toxic to most other life, to microbes that live under high levels of radiation.    Perhaps even more interesting is the possibility that life could exist in the absence of liquid water. That's why scientists are interested in exploring some of the more unusual places in our solar system and beyond, such as Saturn's moon Titan, where it rains liquid methane and ethane. Could such an environment harbor life? We don't know yet.    Ultimately, of course, the search for life is a crosscutting theme in all of NASA's space science endeavors, bringing together research in astrophysics, Earth science, heliophysics, and planetary science. Astrobiology is guided by a community-constructed roadmap generated about every five years with the next roadmap slated for release later this year.    In addition, in April NASA announced the formation of an initiative dedicated to the search for life on planets outside our solar system. The Nexus for Exoplanet System Science is an interdisciplinary effort that connects top research teams and provides a synthesized approach in the search for planets with the greatest potential for harboring life.    From research, to our knowledge of where to go and what to look for, to the capabilities of finding it both within our solar system and beyond, we are making great discoveries.    Thank you for the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Stofan.    Dr. Lunine.</t>
   </si>
   <si>
-    <t>Lunine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lunine. Thank you, Chairman Smith, Ranking Member Johnson, and members of the committee. Thank you for the opportunity to present my views on the search for life beyond Earth. These views are my own and they come from 30 years of working in the field of planetary science at various institutions in the United States and abroad.    One of the most important outcomes of the last two decades of solar system exploration is the identification of four bodies in our solar system that appear capable of harboring life. These bodies possess a particular set of characteristics that make them the best leads in the search for life beyond the Earth. And if I could have the first slide, the first of these bodies is Mars.    [Slide.]    In its first billion years, Mars had abundant liquid water, stabilized and protected by a much denser atmosphere than the tenuous shell we see today. During this time, life might have begun, survived for a while on the surface, and then was extinguished or retreated underground as the atmosphere was lost. If I could have the second slide----    [Slide.]    The second of these objects is Jupiter's moon Europa. It's a body the size of our own moon. It has a very large saltwater ocean, twice the water that we have in our own ocean. This ocean is in contact with a rocky core and abundant sources of energy. As yet, we don't know whether organic molecules exist inside of this ocean, but we strongly suspect that they are there. Equally important, we don't know how far beneath Europa's surface the ocean lies. Knowing that will allow a strategy to be formulated for searching for life there.    [Slide.    Next slide is Titan, a Saturnian moon that's larger than the planet Mercury and the only moon in our solar system to host a dense atmosphere of nitrogen and methane. Cassini and its lander Huygens have revealed methane clouds, rain, gullies, river valleys, and methane/ethane seas, and so we cannot resist asking whether some biochemically novel form of life might have arisen in this exotic frigid environment. Titan is a test for the universality of life as an outcome of cosmic evolution. To quote the historian Stephen Pyne, ``What the Galapagos Islands did for the theory of evolution by natural selection, Titan might do for exobiology.''    [Slide.]    Finally, next slide, Enceladus has surprised us. This small Saturnian moon has a large plume of material emanating from a series of fractures in its south polar region. Make a list of requirements for terrestrial-type life--liquid water, organics, minerals, energy, chemical gradients--and Cassini has found evidence for all of them in the plum of Enceladus.    So how do we actually find the signs of life in these bodies? The evidence will not be entire living organisms. Much more likely is that we will detect signatures that indicate that life is at work or was at work in these environments. In contrast to nonbiological processes, biology is built from a very limited, selected set of molecules, and so if we can recognize patterns in the makeup of organic molecules and their isotopes, we then have strong evidence of biology at work.    At Mars, finding sources of methane and measuring their isotopes is one way to get at this question. Another is to seek well-preserved organic materials in the soil to see if they record the signatures of biology. And the Mars 2020 Rover will do the heavy lifting here.    For Europa, the Europa mission now in development will provide the essential information needed to decide, among other things, whether organics and water are welling up through the cracks on the surface and whether plumes exist and can be measured. Doing this mission, doing it now is absolutely crucial to any general strategy for the search for life.    For Titan, the search to target one of the great methane/ethane seas by dropping a capsule capable of floating across the surface. We don't know what kind of biochemistry we're looking for here and so a generalized search for patterns and molecular structures and abundances that indicate deviation from abiotic chemistry is appropriate.    And finally, Enceladus provides us with the most straightforward way to look for life. Merely flying through the plume of Enceladus, as Cassini has done multiple times, with modern instrumentation intended to detect the signatures of life, is sufficient to do the search.    The long flight times in the outer solar system in particular dictate the planning for missions to Enceladus, Europa, and Titan must begin now and must be pursued with vigor if they're to happen in the next two decades. It is remarkable that we have found four destinations in our own solar system where life may actually exist or have existed for quite some time in the past and now is the time to actually go search for the life.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Lunine.    And Dr. Bean.</t>
   </si>
   <si>
-    <t>Bean</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Bean. Mr. Chairman and Members of the Committee, good morning, and thank you for the opportunity to serve as a witness for this important hearing.    My testimony today will be focused on the topic of exoplanet spectroscopy in the context of the search for life beyond Earth. The main point I want to convey is that an expanded exoplanet exploration program with a flagship exoplanet spectroscopy space telescope as its centerpiece could answer one of humanity's most fundamental questions: Is there life elsewhere in the universe?    Extrasolar planets, or exoplanets for short, are planets outside our solar system that orbit stars other than our Sun. This year marks just the 20th anniversary of the first detection of an exoplanet orbiting a sun-like star, but progress in the field has been rapid in the intervening years. In particular, the launch of NASA's Kepler telescope in 2009 has revolutionized the field. The Kepler mission has advanced to the point that it is now focused on finding Earth-size planets orbiting their host stars in the so-called ``habitable zone,'' which is the distance at which the temperature on the surface of a terrestrial planet could be right for liquid water to be present.    A handful of Earth-size habitable-zone exoplanets have been found over the last few years. These discoveries have grabbed the attention of the scientific community and the public because they suggest that Earth-like planets may exist around relatively nearby stars, and that we therefore have it within our grasp to search for life on other worlds in our lifetimes.    The next step towards determining if there are any truly habitable planets or even inhabited planets is to study the atmospheres of candidate worlds using the technique of astronomical spectroscopy. Planetary atmospheres are a key factor controlling the habitability of a planet because they are reservoirs of biogenic elements and regulators of planetary surface conditions. Furthermore, planetary atmospheres can be influenced by interactions with a biosphere, and thus may be a marker of life itself absent direct observation or communication.    Astronomers have made progress revealing the nature of the atmospheres of hot, gas giant-type exoplanets using the Hubble and Spitzer Space Telescopes and the ground-based Keck and Gemini telescopes. These investigations have yielded constraints on the abundances of key chemical species, the identification of clouds, and the determinations of temperature maps.    Astronomers eagerly await the launch of the James Webb Space Telescope in 2018. Among its many new important capabilities, the Webb telescope will dramatically extend the reach of exoplanet spectroscopy. It may even have the capability to determine the presence of major molecules like water and carbon dioxide and measure the temperatures of Earth-size exoplanets atmospheres. However, Webb will be hard-pressed to detect evidence for life, only made possible with fortuitous planets, extraordinary performance of the instrument, and large amounts of biosignature gases in the planets themselves.    A flagship space telescope with next-generation optics will likely be needed to detect evidence for life on other Earth-like exoplanets. The astrophysics community is currently ramping up for a Decadal Survey that will prioritize large space missions to follow the Webb telescope.    At the wise urging of NASA leadership, the community is currently developing concepts for telescopes that could take spectra of Earth-like exoplanets in preparation for the decadal selection process. The top-priority space telescope from the previous Decadal Survey, currently dubbed WFIRST-AFTA will have capabilities that lay a foundation for a future life-finder telescope. One of the science goals of the WFIRST-AFTA mission is to obtain improved statistics on the frequency of potentially habitable planets. In addition, NASA is currently considering including an exoplanet spectrometer on the telescope. This instrument would not have the capability to make measurements for Earth-like planets but it would advance the science and technology in that direction.    As a final point, it is important to keep in mind that a future life-finder mission cannot be a success in the absence of other projects. The need for comprehensive knowledge to confront the question of life on other planets is why I think that ultimately an expanded program in exoplanet exploration would be the best way forward. Although a flagship space telescope would be the crown jewel, this program should be driven by the question of life rather than the construction of a single facility. It would take courage and perseverance by scientists, government leaders, and the public all working together to act on this vision and see it through, but our ability to rise to this kind of challenge is what makes America exceptional.    From the Apollo program through the Voyager, Hubble, and Mars Rover programs, with the recent stunning success of the New Horizons mission to Pluto, and today with the launch of the Webb telescope just a few years away, our country leads the way in projects that are lasting milestones of space exploration. The search for life beyond our planet represents the next great space exploration challenge that would continue this legacy.    Mr. Chairman and members of the committee, thank you again for the opportunity to be here as a witness, and I'd be happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Bean.    And Dr. Siemion.</t>
   </si>
   <si>
-    <t>Siemion</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Siemion. Chairman Smith, Ranking Member Johnson, and Members of the Committee, thank you for the opportunity to testify today.    Searches for Extraterrestrial Intelligence, SETI experiments, seek to determine the distribution of advanced life in the universe through detecting the presence of technology, usually by searching for electromagnetic radiation from communication technology, but also by searching for evidence of large-scale energy usage or interstellar propulsion. Technology is thus used as a proxy for intelligence. If an advanced technology exists, so, too, does the advanced life that created it.    We know of no way to directly detect intelligent life, but if other intelligent life exists and possesses a technological capability similar to our own, we could detect their technology using the techniques of modern astronomy. Large radio telescopes such as the Green Bank Telescope in West Virginia and the Arecibo Observatory in Puerto Rico are superb facilities for a wide range of astronomy, including pulsar studies that test Einstein's theory of general relativity, mapping the gas in nearby galaxies, and probing the earliest epochs of the universe. In addition, these facilities are among the world's best in searching for the faint whispers of distant technologies.    A variety of radio study experiments are underway at both the Green Bank Telescope and the Arecibo Observatory, including some that allow us to observe in parallel with other astronomers without interfering with their work, a technique we call ``piggyback observing.'' Several other U.S. and international radio telescopes are also currently being used for radio study, including the private Allen Telescope Array in northern California, the Low-Frequency Array in Europe, and the Murchison Widefield Array in Australia.    Many radio study searches are taking advantage of the wealth of new information on our galaxy's exoplanet population now being revealed by missions such as NASA's Kepler spacecraft.    In a very exciting new project, a group based at the University of California San Diego are using the Lick Observatory near San Jose to conduct a search for pulsed lasers in the near-infrared, wavelengths just a hair longer than optical light but much better at penetrating the dusty space between the stars.    These SETI experiments are funded by a combination of government and private sources, including notable contributions from the John Templeton Foundation. Ensuring that facilities like the Green Bank Telescope, Arecibo, and the Lick and Keck Observatories continue to exist as world-class astronomical facilities is critical to their continued use in SETI experiments.    One of the most exciting prospects for SETI in the next decade is the Breakthrough Listen initiative, a $100 million, ten-year effort funded by the Breakthrough Prize Foundation that will conduct the most sensitive, comprehensive, and intensive search for advanced intelligent life on other worlds ever performed.    I have an animation I would like to show you illustrating some components of Breakthrough Listen.    [Slide.]    Here, we see the Milky Way Galaxy, a galaxy that we now know hosts tens of billions of planets in the habitable zone of their star, planets that might have liquid water on their surface. If intelligent life arose on some of these planets and developed radio technology, the emissions from their technology would proceed at the speed of light out into the Milky Way. But for how long? Life may arise, it may develop intelligence, and finally, a communicative technology. But that final stage may only last for a few thousand years. But the evidence of their technology, the bubble of their electromagnetic radiation, will continue to propagate throughout the galaxy and could eventually be detectable at the Earth.    With Breakthrough Listen, we will conduct deep observations for these types of emissions from 1 million of the nearest stars to the Earth that will be at least 10 times more sensitive than ever performed. These observations will cover at least five times more of the radio spectrum than any previous experiment. We will conduct these observations using the Green Bank Telescope in West Virginia, as well as the Parkes Radio Telescope in Australia.    It is undoubtable that the next decade will be an incredibly exciting time for astrobiology. Data provided by missions like the Transiting Exoplanet Survey Satellite and the James Webb Space Telescope virtually guarantee dramatic new insight into exoplanet science, including identifying and characterizing some of the nearest exoplanets to the Earth. At the same time, we will continue to learn more about the development of life on Earth and the potential for life elsewhere in our own solar system. If history is any guide, these discoveries will only heighten our imagination about the possibilities for advanced life elsewhere in the universe.    Thank you.</t>
   </si>
   <si>
@@ -268,9 +250,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman. And welcome all of you panelists. We appreciate and it's very, very fascinating to hear your testimony.    In my district, Texas 36, the Johnson Space Center Astromaterials Curation facility provides the services for all return planetary materials that do not require planetary protection laboratories. This facility has been in operation since the Apollo lunar samples were returned. In the next decades we anticipate missions to collect samples from the Moon, from Mars, from comets, and from asteroids. Each of these new sample collections will require new curation laboratories while the facilities for the older collections will require routine maintenance and upgrades.    Samples to be returned from Mars pose even greater challenges due to special planetary protection requirements. Dr. Stofan, what steps is NASA taking to upgrade its curation facilities and protect against the transfer of viable organisms from Earth to celestial bodies, which may harbor life?</t>
   </si>
   <si>
@@ -319,9 +298,6 @@
     <t>412524</t>
   </si>
   <si>
-    <t>Elizabeth H. Esty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you, Mr. Chairman, and thank you, Ranking Member Johnson, for holding today's fascinating hearing. And thank you to all of you.    I joined millions of Americans on Sunday night watching the Blood Moon and a Blue Moon earlier this year, and I have to tell you, in the district like mine in Connecticut, schoolchildren are incredibly inspired and excited by these developments. And many of us here on this panel share a commitment to STEM education. And so it's in part through that lens I would like to proceed with my questions.    Congratulations, Dr. Stofan, incredibly exciting announcement yesterday. And we look forward to understanding what that means. And as you can hear, we've already had questions today.    Dr. Stofan, you spoke earlier about the need to have human exploration on Mars to really understand and to make those subtle intuitive judgments that are necessary. Do you anticipate that yesterday's announcement and the discovery proceeding that changes in any way the priorities of the ordering of that? And help us understand our role as decision-makers on helping to set priorities that are keeping up with the developing science.</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman.    I'm one of those teenagers that rushed home to see the original Star Trek with William Shatner and Leonard Nimoy, so this is fascinating. Like the Chairman said, we have a million questions.    Dr. Stofan, like you, I'm of the opinion you're going to have to have boots on the ground so to speak to finally answer the questions. So let's bring it a little bit closer to home. You referenced the possible meteor asteroid in Antarctica. I'm assuming you're referencing the Allan Hills meteor back in, what, '84 I think it was when it was discovered.    And if we go to a synthetic biology topics such as XNA as opposed to DNA, RNA, would our funding be more appropriate in a realistic term as to funding projects in that realm as opposed to, you know, something that maybe 100 years off as far as time travel or space travel is concerned?</t>
   </si>
   <si>
@@ -385,9 +358,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. I thank all of you for coming today. It's a fascinating hearing. Mr. Chairman, thank you very much for structuring this. And I look forward to our Science, Space, and Technology CODEL for low-Earth orbit. I'm counting on you to assist me in this.    To go quickly, Dr. Siemion, you know, for years we had the PCs at our home following SETI, doing the analysis of the work, and it was fun. We have no successful conclusion yet. I'm fascinated by the $100 million for the Breakthrough project. But what happens when we discover extraterrestrial intelligence? Do we have a plan about what happens next?</t>
   </si>
   <si>
@@ -433,9 +403,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman, and thank the witnesses for their testimony today.    I just wonder if each of you would give me your definition of life.</t>
   </si>
   <si>
@@ -490,9 +457,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Chairman, and Ranking Member. And I really want to thank both the Chairman and Ranking Member for this topic. You know, it comes at a very timely time--and the witnesses.    You know, as a child growing up in Southern California at the heart of the aerospace industry in the '60s and '70s, you know, the space race captivated us, the Apollo missions, Apollo-Soyuz, Skylab, going to the space shuttle. And, you know, as someone who went into the sciences and became a doctor, you know, it really was pivotal in, you know, fostering our curiosity. I mean if we think about who we are as a race, as human beings, we are naturally curious. We are natural explorers and we want to find those answers.    And I think it's incredibly important, the work that NASA is doing, the work that our scientists are doing and fostering the imagination of the next generation. I think we need to do more of that in fact because, you know, in listening to some of the--your testimony, as well as how you answer the questions, we don't know what life is going to look like. We don't know what we are going to discover. We don't know what frequencies we should be listening for. But we do know that something is out there, and if we don't, you know, continue to push our imagination, if we don't continue to--we don't know how we're going to get to Mars, let alone how we're going to send a human being to Mars and bring them back, but we do know if we challenge ourselves, we will discover that. We will--we always have. And I think that is the importance of what we're doing here on the Science and Technology Committee but also in Congress and also working with our colleagues around this world because this is not just a U.S. mission; it is a human mission to find and discover, you know, where we came from, how life evolved, but also how life becomes extinct as well, as we're looking at these planets, the impacts of those discoveries on, you know, what is affecting our own planet right now as we deal with climate change, as we deal with a changing atmosphere. Those discoveries will help us manage our own issues on our planet.    I'll ask a quick question of each of the panelists, and each of you can answer this. In explaining why it is important to search for life beyond our planet, beyond just the philosophical elements, if you were to explain this to an elementary school student or the public in general, how might you put why this is such an important endeavor? And we'll start with Dr. Stofan.</t>
   </si>
   <si>
@@ -547,9 +511,6 @@
     <t>412514</t>
   </si>
   <si>
-    <t>Eric Swalwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Chair. And thank you to our panelists. Congratulations. I have to say it's refreshing to have a hearing about something so big, so exciting and further than the eye can see, and so, you know, in Washington it gets quite frustrating here. It feels like we are so focused on just very small, incremental things and people at home get quite frustrated that that seems to rule the day here. But the work that you're doing is so important, so big, and will inspire so many future scientists. So congratulations.    I had the opportunity to go with the Chairman and a few others to Antarctica. One of your colleagues, John Gunderson, joined us on a trip and he told us as we went through the McMurdo Dry Valleys, that that area--and he was excited to be on that trip and visit that area because it most closely resembled what we believe many of the parts of Mars to be. And so this discovery is another step forward in that effort.    As far as the water that has been discovered, do we believe it could support life? Is it too salty? Do we know enough about its properties to make that conclusion yet? Dr. Stofan?</t>
   </si>
   <si>
@@ -583,9 +544,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman, and thank you to the members.    I was sort of curious. I don't know if Mr. Foster had a chance to--we were kind of speculating over here as to whether there's value in doing the kind of marking of all of these different sources to determine whether there was at some point sort of one general dispersion so that there is a relationship between potential life that we might detect one place and another, and so I don't know if that kind of work is going on. And I wondered, Dr. Lunine, if you could speak to that.</t>
   </si>
   <si>
@@ -617,9 +575,6 @@
   </si>
   <si>
     <t>412192</t>
-  </si>
-  <si>
-    <t>Ed Perlmutter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perlmutter. And, Mr. Chairman and to the Ranking Member, I've served on a lot of committees in the Congress, and this Committee is by far the most exciting, stimulating, energizing committee in the Congress. And as I'm sitting down here and looking up at the top row and reading Tennyson, ``For I dipped into the future, far as human eye could see, saw the vision of the world, and all the wonder that would be.'' Listening to you all, that's what this is about. This is--this gives me goose bumps. The versatility of your instruments or your minds to say, you know what, this was really intended to do that but we could use it for this. And I just enjoy this Committee.    So--and Dr. Bera talked about the challenge and the desire of all of us to explore. I mean I have some differences with the Chairman on prioritizing and actually funding because I see what you all do and your research and your service to be investments in the future, and that will pay for a long time to come. And I don't think it's a zero-sum game pitting the astronomers against the physicists and all that stuff. And I don't think the Chairman does either, but I really would like to see us move forward obviously with the Orion project and get humans to Mars.    And with that, I'm going to yield to my friend from Maryland for her questions.</t>
@@ -1048,11 +1003,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1072,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1100,11 +1051,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1126,11 +1075,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1152,11 +1099,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1176,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1204,11 +1147,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1228,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1256,11 +1195,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1280,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1308,11 +1243,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1332,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1360,11 +1291,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1384,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1412,11 +1339,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1436,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1464,11 +1387,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1488,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1516,11 +1435,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1540,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1568,11 +1483,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1592,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1620,11 +1531,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1644,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1672,11 +1579,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1696,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1724,11 +1627,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1748,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1776,11 +1675,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1800,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1828,11 +1723,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1852,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1880,11 +1771,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1904,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1932,11 +1819,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1956,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1984,11 +1867,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2008,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2036,11 +1915,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2060,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2088,11 +1963,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2112,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2140,11 +2011,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2164,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2192,11 +2059,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2216,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2244,11 +2107,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2268,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2296,11 +2155,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2320,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2348,11 +2203,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2372,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2400,11 +2251,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2424,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2452,11 +2299,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2476,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2504,11 +2347,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2528,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2556,11 +2395,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2582,11 +2419,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2606,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2632,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2658,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2684,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2710,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2736,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2762,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2790,11 +2611,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2814,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2840,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2866,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2892,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2918,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2944,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2970,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>84</v>
-      </c>
-      <c r="H76" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2996,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3022,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3048,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3074,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3100,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3126,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3152,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" t="s">
-        <v>84</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3180,11 +2971,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3204,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s">
-        <v>101</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3230,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3256,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3282,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3308,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s">
-        <v>101</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3336,11 +3115,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3360,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3386,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3412,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3438,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3464,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3490,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3516,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3542,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3568,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s">
+        <v>100</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>109</v>
-      </c>
-      <c r="H99" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3594,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3620,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3648,11 +3403,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3672,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3698,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3724,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3750,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3776,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3802,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3828,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3854,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3880,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>122</v>
-      </c>
-      <c r="G111" t="s">
-        <v>123</v>
-      </c>
-      <c r="H111" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3906,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3932,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
-      </c>
-      <c r="G113" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3958,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3984,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4012,11 +3739,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4036,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
-      </c>
-      <c r="G117" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4062,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4088,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4114,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4140,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4166,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4192,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4218,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4244,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4270,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4296,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" t="s">
+        <v>128</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>139</v>
-      </c>
-      <c r="H127" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4322,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4348,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4374,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4400,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4426,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>138</v>
-      </c>
-      <c r="G132" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4454,11 +4147,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4478,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
-      </c>
-      <c r="G134" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4504,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4530,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4556,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4582,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4608,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4634,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>157</v>
-      </c>
-      <c r="G140" t="s">
-        <v>158</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4662,11 +4339,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4686,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4714,11 +4387,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4738,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4766,11 +4435,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4790,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4818,11 +4483,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4842,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4870,11 +4531,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4894,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4922,11 +4579,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4946,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4972,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4998,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>176</v>
-      </c>
-      <c r="G154" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5024,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5050,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>176</v>
-      </c>
-      <c r="G156" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5076,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5102,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>176</v>
-      </c>
-      <c r="G158" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5128,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5154,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
-      </c>
-      <c r="G160" t="s">
-        <v>177</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5182,11 +4819,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5206,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
-      </c>
-      <c r="G162" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5232,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5258,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>188</v>
-      </c>
-      <c r="G164" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5284,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5310,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>188</v>
-      </c>
-      <c r="G166" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5336,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5362,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>188</v>
-      </c>
-      <c r="G168" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5388,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5414,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>188</v>
-      </c>
-      <c r="G170" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5442,11 +5059,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5466,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
-      </c>
-      <c r="G172" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5492,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
+        <v>175</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>188</v>
-      </c>
-      <c r="G173" t="s">
-        <v>189</v>
-      </c>
-      <c r="H173" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5518,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5544,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>188</v>
-      </c>
-      <c r="G175" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5570,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5596,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
-      </c>
-      <c r="G177" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5622,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>200</v>
-      </c>
-      <c r="G178" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5648,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
-      </c>
-      <c r="G179" t="s">
-        <v>189</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5674,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>200</v>
-      </c>
-      <c r="G180" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5702,11 +5299,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97759.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97759.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing, which is called ``Astrobiology and the Search for Life beyond Earth in the Next Decade.''    Let me make a couple of announcements. One is an explanation and that is to say that we expect more Members shortly, but at least on the Republican side, all of our Members are in a Republican conference that I left early in order to start on time here, but other Members will be arriving shortly. And the same may be true of our colleagues on the other side of the aisle as well.    We have a new member of the Science, Space, and Technology Committee, and I would like to introduce him. He is Darin LaHood, the first Member to my left, whose father I served with in Congress some years ago. Darin LaHood represents a district in Illinois. He's a former State Senator or serving as a State Senator when he was elected to Congress. Before that, he was both a State and Federal prosecutor. So we welcome his many talents to the Committee. He is going to be serving on two subcommittees, Research and Technology and Oversight, where he will be bringing all those legal skills to bear. And so we are pleased to have him join us today and permanently on this Committee. Welcome, Darin, to you.</t>
   </si>
   <si>
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,24 +88,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Stofan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Stofan. Thank you. I'm pleased to appear before the Committee to discuss astrobiology and the search for life beyond Earth. If I could have the first slide, please.    [Slide.]    NASA's science missions are providing strong evidence of possible habitable environments beyond Earth. With future technology and instruments currently under development, we will explore the solar system and beyond, and could indeed, perhaps in as little as 10 to 20 years, discover some form of life, past or present.    Our search is making amazing progress. When I was a Ph.D. student, scientists certainly suspected that planets might be commonplace in the universe, but we have not found evidence of a single one. Twenty years ago, we found evidence of such a planet, and today, thanks to NASA's space missions and ground-based telescopes, we have identified nearly 5,000 planets orbiting other stars, and we now believe that that the vast majority of stars in the universe have planets around them. In July, the Kepler mission confirmed the first near-Earth-size planet in the ``habitable zone'' around a sun-like star, Kepler-452b.    On Mars, a series of NASA missions culminating in the Curiosity Rover, which touched down in Gale Crater nearly three years ago, have allowed us to make fundamental discoveries. Next slide.    [Slide.]    We now know that Mars was once a water world much like Earth, with clouds and a water cycle, and indeed some running water currently on the surface. For hundreds of millions of years, about half of the northern hemisphere of Mars had an ocean, possibly a mile deep in places.    Indeed, we now know that we live in a soggy solar system, and undoubtedly, in a soggy universe. For instance, Jupiter lies outside the habitable zone and we would expect water there to be frozen. Yet we now have evidence of liquid oceans on three moons of Jupiter under the icy crusts of those worlds. And using the Hubble and Spitzer Space Telescopes, we have found signs of water in the atmospheres of planets around other stars.    So what lies ahead in the next decade of exploration? I'd like to describe just some of the highlights. Life as we know it requires water, liquid water, that's been stable on the surface of a planet for a very long time. That's why Mars is our primary destination in the search for life in our solar system. The Mars 2020 Rover mission will study Martian rocks and soils to understand past habitable conditions on Mars and to seek signs of ancient microbial life. If we do find evidence of life on Mars, it will likely be fossilized microorganisms preserved in the rock layers. The Mars 2020 Rover will begin the search, but as a field geologist, I can tell you it's going to be hard to find. That's why I believe it will take human explorers who can move quickly and make intuitive decisions on their feet to really identify it, and in doing so, inspire that next generation of explorers.    Over the next decade, our journey to Mars involves the development of a commercial crew capability for low-Earth orbit, the Space Launch System and Orion, to go beyond low-Earth orbit and an asteroid redirect mission.    Beyond Mars, the President's fiscal year 2016 budget request supports the formulation and development of a new mission to the Jovian moon Europa. If I could have the next slide.    [Slide.]    We estimate that Europa has twice as much water as the Earth's oceans, and Hubble has observed plumes of water at one of Europa's poles. A Europa mission could potentially, among other things, analyze these water plumes to determine the composition of those oceans.    Beyond our solar system, there are countless other worlds that could harbor life. In 2017, NASA will launch the Transiting Exoplanet Survey Satellite to look for rocky planets near the habitable zone of the closest stars. Next slide.    [Slide.]    We will then use the James Webb Space Telescope to analyze the atmospheres of some of these planets. The President's fiscal year 2016 budget request also supports the pre-formulation of a Wide Field Infrared Survey Telescope with the capability of directly imaging planets around the nearest stars and analyzing their atmospheres.    Since Earth remains, for now, the only instance of an inhabited planet, the search for life also requires that we further develop our understanding of life on Earth. Through our research here, we have learned that life is tough, tenacious, metabolically diverse, and highly adaptable to local environmental conditions. Astrobiologists have discovered life in numerous extreme environments and in extraordinary forms from bacteria that consume chemicals that would be toxic to most other life, to microbes that live under high levels of radiation.    Perhaps even more interesting is the possibility that life could exist in the absence of liquid water. That's why scientists are interested in exploring some of the more unusual places in our solar system and beyond, such as Saturn's moon Titan, where it rains liquid methane and ethane. Could such an environment harbor life? We don't know yet.    Ultimately, of course, the search for life is a crosscutting theme in all of NASA's space science endeavors, bringing together research in astrophysics, Earth science, heliophysics, and planetary science. Astrobiology is guided by a community-constructed roadmap generated about every five years with the next roadmap slated for release later this year.    In addition, in April NASA announced the formation of an initiative dedicated to the search for life on planets outside our solar system. The Nexus for Exoplanet System Science is an interdisciplinary effort that connects top research teams and provides a synthesized approach in the search for planets with the greatest potential for harboring life.    From research, to our knowledge of where to go and what to look for, to the capabilities of finding it both within our solar system and beyond, we are making great discoveries.    Thank you for the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Stofan.    Dr. Lunine.</t>
   </si>
   <si>
+    <t>Lunine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lunine. Thank you, Chairman Smith, Ranking Member Johnson, and members of the committee. Thank you for the opportunity to present my views on the search for life beyond Earth. These views are my own and they come from 30 years of working in the field of planetary science at various institutions in the United States and abroad.    One of the most important outcomes of the last two decades of solar system exploration is the identification of four bodies in our solar system that appear capable of harboring life. These bodies possess a particular set of characteristics that make them the best leads in the search for life beyond the Earth. And if I could have the first slide, the first of these bodies is Mars.    [Slide.]    In its first billion years, Mars had abundant liquid water, stabilized and protected by a much denser atmosphere than the tenuous shell we see today. During this time, life might have begun, survived for a while on the surface, and then was extinguished or retreated underground as the atmosphere was lost. If I could have the second slide----    [Slide.]    The second of these objects is Jupiter's moon Europa. It's a body the size of our own moon. It has a very large saltwater ocean, twice the water that we have in our own ocean. This ocean is in contact with a rocky core and abundant sources of energy. As yet, we don't know whether organic molecules exist inside of this ocean, but we strongly suspect that they are there. Equally important, we don't know how far beneath Europa's surface the ocean lies. Knowing that will allow a strategy to be formulated for searching for life there.    [Slide.    Next slide is Titan, a Saturnian moon that's larger than the planet Mercury and the only moon in our solar system to host a dense atmosphere of nitrogen and methane. Cassini and its lander Huygens have revealed methane clouds, rain, gullies, river valleys, and methane/ethane seas, and so we cannot resist asking whether some biochemically novel form of life might have arisen in this exotic frigid environment. Titan is a test for the universality of life as an outcome of cosmic evolution. To quote the historian Stephen Pyne, ``What the Galapagos Islands did for the theory of evolution by natural selection, Titan might do for exobiology.''    [Slide.]    Finally, next slide, Enceladus has surprised us. This small Saturnian moon has a large plume of material emanating from a series of fractures in its south polar region. Make a list of requirements for terrestrial-type life--liquid water, organics, minerals, energy, chemical gradients--and Cassini has found evidence for all of them in the plum of Enceladus.    So how do we actually find the signs of life in these bodies? The evidence will not be entire living organisms. Much more likely is that we will detect signatures that indicate that life is at work or was at work in these environments. In contrast to nonbiological processes, biology is built from a very limited, selected set of molecules, and so if we can recognize patterns in the makeup of organic molecules and their isotopes, we then have strong evidence of biology at work.    At Mars, finding sources of methane and measuring their isotopes is one way to get at this question. Another is to seek well-preserved organic materials in the soil to see if they record the signatures of biology. And the Mars 2020 Rover will do the heavy lifting here.    For Europa, the Europa mission now in development will provide the essential information needed to decide, among other things, whether organics and water are welling up through the cracks on the surface and whether plumes exist and can be measured. Doing this mission, doing it now is absolutely crucial to any general strategy for the search for life.    For Titan, the search to target one of the great methane/ethane seas by dropping a capsule capable of floating across the surface. We don't know what kind of biochemistry we're looking for here and so a generalized search for patterns and molecular structures and abundances that indicate deviation from abiotic chemistry is appropriate.    And finally, Enceladus provides us with the most straightforward way to look for life. Merely flying through the plume of Enceladus, as Cassini has done multiple times, with modern instrumentation intended to detect the signatures of life, is sufficient to do the search.    The long flight times in the outer solar system in particular dictate the planning for missions to Enceladus, Europa, and Titan must begin now and must be pursued with vigor if they're to happen in the next two decades. It is remarkable that we have found four destinations in our own solar system where life may actually exist or have existed for quite some time in the past and now is the time to actually go search for the life.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Lunine.    And Dr. Bean.</t>
   </si>
   <si>
+    <t>Bean</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Bean. Mr. Chairman and Members of the Committee, good morning, and thank you for the opportunity to serve as a witness for this important hearing.    My testimony today will be focused on the topic of exoplanet spectroscopy in the context of the search for life beyond Earth. The main point I want to convey is that an expanded exoplanet exploration program with a flagship exoplanet spectroscopy space telescope as its centerpiece could answer one of humanity's most fundamental questions: Is there life elsewhere in the universe?    Extrasolar planets, or exoplanets for short, are planets outside our solar system that orbit stars other than our Sun. This year marks just the 20th anniversary of the first detection of an exoplanet orbiting a sun-like star, but progress in the field has been rapid in the intervening years. In particular, the launch of NASA's Kepler telescope in 2009 has revolutionized the field. The Kepler mission has advanced to the point that it is now focused on finding Earth-size planets orbiting their host stars in the so-called ``habitable zone,'' which is the distance at which the temperature on the surface of a terrestrial planet could be right for liquid water to be present.    A handful of Earth-size habitable-zone exoplanets have been found over the last few years. These discoveries have grabbed the attention of the scientific community and the public because they suggest that Earth-like planets may exist around relatively nearby stars, and that we therefore have it within our grasp to search for life on other worlds in our lifetimes.    The next step towards determining if there are any truly habitable planets or even inhabited planets is to study the atmospheres of candidate worlds using the technique of astronomical spectroscopy. Planetary atmospheres are a key factor controlling the habitability of a planet because they are reservoirs of biogenic elements and regulators of planetary surface conditions. Furthermore, planetary atmospheres can be influenced by interactions with a biosphere, and thus may be a marker of life itself absent direct observation or communication.    Astronomers have made progress revealing the nature of the atmospheres of hot, gas giant-type exoplanets using the Hubble and Spitzer Space Telescopes and the ground-based Keck and Gemini telescopes. These investigations have yielded constraints on the abundances of key chemical species, the identification of clouds, and the determinations of temperature maps.    Astronomers eagerly await the launch of the James Webb Space Telescope in 2018. Among its many new important capabilities, the Webb telescope will dramatically extend the reach of exoplanet spectroscopy. It may even have the capability to determine the presence of major molecules like water and carbon dioxide and measure the temperatures of Earth-size exoplanets atmospheres. However, Webb will be hard-pressed to detect evidence for life, only made possible with fortuitous planets, extraordinary performance of the instrument, and large amounts of biosignature gases in the planets themselves.    A flagship space telescope with next-generation optics will likely be needed to detect evidence for life on other Earth-like exoplanets. The astrophysics community is currently ramping up for a Decadal Survey that will prioritize large space missions to follow the Webb telescope.    At the wise urging of NASA leadership, the community is currently developing concepts for telescopes that could take spectra of Earth-like exoplanets in preparation for the decadal selection process. The top-priority space telescope from the previous Decadal Survey, currently dubbed WFIRST-AFTA will have capabilities that lay a foundation for a future life-finder telescope. One of the science goals of the WFIRST-AFTA mission is to obtain improved statistics on the frequency of potentially habitable planets. In addition, NASA is currently considering including an exoplanet spectrometer on the telescope. This instrument would not have the capability to make measurements for Earth-like planets but it would advance the science and technology in that direction.    As a final point, it is important to keep in mind that a future life-finder mission cannot be a success in the absence of other projects. The need for comprehensive knowledge to confront the question of life on other planets is why I think that ultimately an expanded program in exoplanet exploration would be the best way forward. Although a flagship space telescope would be the crown jewel, this program should be driven by the question of life rather than the construction of a single facility. It would take courage and perseverance by scientists, government leaders, and the public all working together to act on this vision and see it through, but our ability to rise to this kind of challenge is what makes America exceptional.    From the Apollo program through the Voyager, Hubble, and Mars Rover programs, with the recent stunning success of the New Horizons mission to Pluto, and today with the launch of the Webb telescope just a few years away, our country leads the way in projects that are lasting milestones of space exploration. The search for life beyond our planet represents the next great space exploration challenge that would continue this legacy.    Mr. Chairman and members of the committee, thank you again for the opportunity to be here as a witness, and I'd be happy to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Bean.    And Dr. Siemion.</t>
   </si>
   <si>
+    <t>Siemion</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Siemion. Chairman Smith, Ranking Member Johnson, and Members of the Committee, thank you for the opportunity to testify today.    Searches for Extraterrestrial Intelligence, SETI experiments, seek to determine the distribution of advanced life in the universe through detecting the presence of technology, usually by searching for electromagnetic radiation from communication technology, but also by searching for evidence of large-scale energy usage or interstellar propulsion. Technology is thus used as a proxy for intelligence. If an advanced technology exists, so, too, does the advanced life that created it.    We know of no way to directly detect intelligent life, but if other intelligent life exists and possesses a technological capability similar to our own, we could detect their technology using the techniques of modern astronomy. Large radio telescopes such as the Green Bank Telescope in West Virginia and the Arecibo Observatory in Puerto Rico are superb facilities for a wide range of astronomy, including pulsar studies that test Einstein's theory of general relativity, mapping the gas in nearby galaxies, and probing the earliest epochs of the universe. In addition, these facilities are among the world's best in searching for the faint whispers of distant technologies.    A variety of radio study experiments are underway at both the Green Bank Telescope and the Arecibo Observatory, including some that allow us to observe in parallel with other astronomers without interfering with their work, a technique we call ``piggyback observing.'' Several other U.S. and international radio telescopes are also currently being used for radio study, including the private Allen Telescope Array in northern California, the Low-Frequency Array in Europe, and the Murchison Widefield Array in Australia.    Many radio study searches are taking advantage of the wealth of new information on our galaxy's exoplanet population now being revealed by missions such as NASA's Kepler spacecraft.    In a very exciting new project, a group based at the University of California San Diego are using the Lick Observatory near San Jose to conduct a search for pulsed lasers in the near-infrared, wavelengths just a hair longer than optical light but much better at penetrating the dusty space between the stars.    These SETI experiments are funded by a combination of government and private sources, including notable contributions from the John Templeton Foundation. Ensuring that facilities like the Green Bank Telescope, Arecibo, and the Lick and Keck Observatories continue to exist as world-class astronomical facilities is critical to their continued use in SETI experiments.    One of the most exciting prospects for SETI in the next decade is the Breakthrough Listen initiative, a $100 million, ten-year effort funded by the Breakthrough Prize Foundation that will conduct the most sensitive, comprehensive, and intensive search for advanced intelligent life on other worlds ever performed.    I have an animation I would like to show you illustrating some components of Breakthrough Listen.    [Slide.]    Here, we see the Milky Way Galaxy, a galaxy that we now know hosts tens of billions of planets in the habitable zone of their star, planets that might have liquid water on their surface. If intelligent life arose on some of these planets and developed radio technology, the emissions from their technology would proceed at the speed of light out into the Milky Way. But for how long? Life may arise, it may develop intelligence, and finally, a communicative technology. But that final stage may only last for a few thousand years. But the evidence of their technology, the bubble of their electromagnetic radiation, will continue to propagate throughout the galaxy and could eventually be detectable at the Earth.    With Breakthrough Listen, we will conduct deep observations for these types of emissions from 1 million of the nearest stars to the Earth that will be at least 10 times more sensitive than ever performed. These observations will cover at least five times more of the radio spectrum than any previous experiment. We will conduct these observations using the Green Bank Telescope in West Virginia, as well as the Parkes Radio Telescope in Australia.    It is undoubtable that the next decade will be an incredibly exciting time for astrobiology. Data provided by missions like the Transiting Exoplanet Survey Satellite and the James Webb Space Telescope virtually guarantee dramatic new insight into exoplanet science, including identifying and characterizing some of the nearest exoplanets to the Earth. At the same time, we will continue to learn more about the development of life on Earth and the potential for life elsewhere in our own solar system. If history is any guide, these discoveries will only heighten our imagination about the possibilities for advanced life elsewhere in the universe.    Thank you.</t>
   </si>
   <si>
@@ -250,6 +277,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman. And welcome all of you panelists. We appreciate and it's very, very fascinating to hear your testimony.    In my district, Texas 36, the Johnson Space Center Astromaterials Curation facility provides the services for all return planetary materials that do not require planetary protection laboratories. This facility has been in operation since the Apollo lunar samples were returned. In the next decades we anticipate missions to collect samples from the Moon, from Mars, from comets, and from asteroids. Each of these new sample collections will require new curation laboratories while the facilities for the older collections will require routine maintenance and upgrades.    Samples to be returned from Mars pose even greater challenges due to special planetary protection requirements. Dr. Stofan, what steps is NASA taking to upgrade its curation facilities and protect against the transfer of viable organisms from Earth to celestial bodies, which may harbor life?</t>
   </si>
   <si>
@@ -298,6 +331,12 @@
     <t>412524</t>
   </si>
   <si>
+    <t>Esty</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you, Mr. Chairman, and thank you, Ranking Member Johnson, for holding today's fascinating hearing. And thank you to all of you.    I joined millions of Americans on Sunday night watching the Blood Moon and a Blue Moon earlier this year, and I have to tell you, in the district like mine in Connecticut, schoolchildren are incredibly inspired and excited by these developments. And many of us here on this panel share a commitment to STEM education. And so it's in part through that lens I would like to proceed with my questions.    Congratulations, Dr. Stofan, incredibly exciting announcement yesterday. And we look forward to understanding what that means. And as you can hear, we've already had questions today.    Dr. Stofan, you spoke earlier about the need to have human exploration on Mars to really understand and to make those subtle intuitive judgments that are necessary. Do you anticipate that yesterday's announcement and the discovery proceeding that changes in any way the priorities of the ordering of that? And help us understand our role as decision-makers on helping to set priorities that are keeping up with the developing science.</t>
   </si>
   <si>
@@ -319,6 +358,12 @@
     <t>412630</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman.    I'm one of those teenagers that rushed home to see the original Star Trek with William Shatner and Leonard Nimoy, so this is fascinating. Like the Chairman said, we have a million questions.    Dr. Stofan, like you, I'm of the opinion you're going to have to have boots on the ground so to speak to finally answer the questions. So let's bring it a little bit closer to home. You referenced the possible meteor asteroid in Antarctica. I'm assuming you're referencing the Allan Hills meteor back in, what, '84 I think it was when it was discovered.    And if we go to a synthetic biology topics such as XNA as opposed to DNA, RNA, would our funding be more appropriate in a realistic term as to funding projects in that realm as opposed to, you know, something that maybe 100 years off as far as time travel or space travel is concerned?</t>
   </si>
   <si>
@@ -358,6 +403,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. I thank all of you for coming today. It's a fascinating hearing. Mr. Chairman, thank you very much for structuring this. And I look forward to our Science, Space, and Technology CODEL for low-Earth orbit. I'm counting on you to assist me in this.    To go quickly, Dr. Siemion, you know, for years we had the PCs at our home following SETI, doing the analysis of the work, and it was fun. We have no successful conclusion yet. I'm fascinated by the $100 million for the Breakthrough project. But what happens when we discover extraterrestrial intelligence? Do we have a plan about what happens next?</t>
   </si>
   <si>
@@ -403,6 +454,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman, and thank the witnesses for their testimony today.    I just wonder if each of you would give me your definition of life.</t>
   </si>
   <si>
@@ -457,6 +514,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Chairman, and Ranking Member. And I really want to thank both the Chairman and Ranking Member for this topic. You know, it comes at a very timely time--and the witnesses.    You know, as a child growing up in Southern California at the heart of the aerospace industry in the '60s and '70s, you know, the space race captivated us, the Apollo missions, Apollo-Soyuz, Skylab, going to the space shuttle. And, you know, as someone who went into the sciences and became a doctor, you know, it really was pivotal in, you know, fostering our curiosity. I mean if we think about who we are as a race, as human beings, we are naturally curious. We are natural explorers and we want to find those answers.    And I think it's incredibly important, the work that NASA is doing, the work that our scientists are doing and fostering the imagination of the next generation. I think we need to do more of that in fact because, you know, in listening to some of the--your testimony, as well as how you answer the questions, we don't know what life is going to look like. We don't know what we are going to discover. We don't know what frequencies we should be listening for. But we do know that something is out there, and if we don't, you know, continue to push our imagination, if we don't continue to--we don't know how we're going to get to Mars, let alone how we're going to send a human being to Mars and bring them back, but we do know if we challenge ourselves, we will discover that. We will--we always have. And I think that is the importance of what we're doing here on the Science and Technology Committee but also in Congress and also working with our colleagues around this world because this is not just a U.S. mission; it is a human mission to find and discover, you know, where we came from, how life evolved, but also how life becomes extinct as well, as we're looking at these planets, the impacts of those discoveries on, you know, what is affecting our own planet right now as we deal with climate change, as we deal with a changing atmosphere. Those discoveries will help us manage our own issues on our planet.    I'll ask a quick question of each of the panelists, and each of you can answer this. In explaining why it is important to search for life beyond our planet, beyond just the philosophical elements, if you were to explain this to an elementary school student or the public in general, how might you put why this is such an important endeavor? And we'll start with Dr. Stofan.</t>
   </si>
   <si>
@@ -511,6 +574,12 @@
     <t>412514</t>
   </si>
   <si>
+    <t>Swalwell</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Swalwell. Thank you, Chair. And thank you to our panelists. Congratulations. I have to say it's refreshing to have a hearing about something so big, so exciting and further than the eye can see, and so, you know, in Washington it gets quite frustrating here. It feels like we are so focused on just very small, incremental things and people at home get quite frustrated that that seems to rule the day here. But the work that you're doing is so important, so big, and will inspire so many future scientists. So congratulations.    I had the opportunity to go with the Chairman and a few others to Antarctica. One of your colleagues, John Gunderson, joined us on a trip and he told us as we went through the McMurdo Dry Valleys, that that area--and he was excited to be on that trip and visit that area because it most closely resembled what we believe many of the parts of Mars to be. And so this discovery is another step forward in that effort.    As far as the water that has been discovered, do we believe it could support life? Is it too salty? Do we know enough about its properties to make that conclusion yet? Dr. Stofan?</t>
   </si>
   <si>
@@ -544,6 +613,12 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman, and thank you to the members.    I was sort of curious. I don't know if Mr. Foster had a chance to--we were kind of speculating over here as to whether there's value in doing the kind of marking of all of these different sources to determine whether there was at some point sort of one general dispersion so that there is a relationship between potential life that we might detect one place and another, and so I don't know if that kind of work is going on. And I wondered, Dr. Lunine, if you could speak to that.</t>
   </si>
   <si>
@@ -575,6 +650,12 @@
   </si>
   <si>
     <t>412192</t>
+  </si>
+  <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Perlmutter. And, Mr. Chairman and to the Ranking Member, I've served on a lot of committees in the Congress, and this Committee is by far the most exciting, stimulating, energizing committee in the Congress. And as I'm sitting down here and looking up at the top row and reading Tennyson, ``For I dipped into the future, far as human eye could see, saw the vision of the world, and all the wonder that would be.'' Listening to you all, that's what this is about. This is--this gives me goose bumps. The versatility of your instruments or your minds to say, you know what, this was really intended to do that but we could use it for this. And I just enjoy this Committee.    So--and Dr. Bera talked about the challenge and the desire of all of us to explore. I mean I have some differences with the Chairman on prioritizing and actually funding because I see what you all do and your research and your service to be investments in the future, and that will pay for a long time to come. And I don't think it's a zero-sum game pitting the astronomers against the physicists and all that stuff. And I don't think the Chairman does either, but I really would like to see us move forward obviously with the Orion project and get humans to Mars.    And with that, I'm going to yield to my friend from Maryland for her questions.</t>
@@ -953,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +1042,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,4325 +1064,5058 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
       <c r="H70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s">
+        <v>87</v>
+      </c>
       <c r="H72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
+      </c>
       <c r="H74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
       <c r="H76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s">
+        <v>87</v>
+      </c>
       <c r="H78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G81" t="s">
+        <v>87</v>
+      </c>
       <c r="H81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>77</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G83" t="s">
+        <v>87</v>
+      </c>
       <c r="H83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
       <c r="H85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
       <c r="H87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
       <c r="H89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>114</v>
+      </c>
       <c r="H91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G93" t="s">
+        <v>114</v>
+      </c>
       <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G95" t="s">
+        <v>114</v>
+      </c>
       <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>100</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G97" t="s">
+        <v>114</v>
+      </c>
       <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>100</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G99" t="s">
+        <v>114</v>
+      </c>
       <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G101" t="s">
+        <v>114</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G103" t="s">
+        <v>129</v>
+      </c>
       <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G105" t="s">
+        <v>129</v>
+      </c>
       <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G107" t="s">
+        <v>129</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G109" t="s">
+        <v>129</v>
+      </c>
       <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G111" t="s">
+        <v>129</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>113</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G113" t="s">
+        <v>129</v>
+      </c>
       <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>113</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="G115" t="s">
+        <v>129</v>
+      </c>
       <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G117" t="s">
+        <v>146</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G122" t="s">
+        <v>146</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G127" t="s">
+        <v>146</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>128</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G132" t="s">
+        <v>146</v>
+      </c>
       <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>146</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G134" t="s">
+        <v>166</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G136" t="s">
+        <v>166</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G140" t="s">
+        <v>166</v>
+      </c>
       <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>164</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G152" t="s">
+        <v>186</v>
+      </c>
       <c r="H152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>24</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>164</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G154" t="s">
+        <v>186</v>
+      </c>
       <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>164</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G156" t="s">
+        <v>186</v>
+      </c>
       <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s">
+        <v>24</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>164</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G158" t="s">
+        <v>186</v>
+      </c>
       <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>24</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>185</v>
+      </c>
+      <c r="G160" t="s">
+        <v>186</v>
+      </c>
       <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>187</v>
+      </c>
+      <c r="I160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>175</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G162" t="s">
+        <v>199</v>
+      </c>
       <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
+        <v>27</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>175</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G164" t="s">
+        <v>199</v>
+      </c>
       <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I164" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>175</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G166" t="s">
+        <v>199</v>
+      </c>
       <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>175</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G168" t="s">
+        <v>199</v>
+      </c>
       <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s">
+        <v>30</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G170" t="s">
+        <v>199</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>186</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G172" t="s">
+        <v>212</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I172" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>175</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G173" t="s">
+        <v>199</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G174" t="s">
+        <v>24</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>175</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G175" t="s">
+        <v>199</v>
+      </c>
       <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G176" t="s">
+        <v>24</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>175</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G177" t="s">
+        <v>199</v>
+      </c>
       <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>186</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G178" t="s">
+        <v>212</v>
+      </c>
       <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>175</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G179" t="s">
+        <v>199</v>
+      </c>
       <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I179" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>186</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="G180" t="s">
+        <v>212</v>
+      </c>
       <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>213</v>
+      </c>
+      <c r="I180" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>196</v>
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97759.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97759.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412674</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>LaHood</t>
@@ -1034,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1051,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,5055 +1076,5428 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I93" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G101" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G105" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I105" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G107" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>27</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>27</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>24</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G122" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>30</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G127" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I127" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>24</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>33</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>36</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G132" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="H132" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I132" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G134" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G136" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I136" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>30</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>36</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G140" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>24</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>27</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>30</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>36</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>36</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G152" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G154" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I154" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>27</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>30</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G156" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I156" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" t="s">
-        <v>24</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G158" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I158" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" t="s">
-        <v>24</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>27</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G160" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I160" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G162" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" t="s">
-        <v>27</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>30</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G164" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I164" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>30</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G166" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J166" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
-      </c>
-      <c r="G167" t="s">
-        <v>27</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G168" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I168" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J168" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
-      </c>
-      <c r="G169" t="s">
-        <v>30</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>33</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G170" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J170" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G172" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I172" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="J172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G173" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I173" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G175" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I175" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>24</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G177" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I177" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G178" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I178" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="J178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G179" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I179" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J179" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G180" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I180" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="J180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>223</v>
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
